--- a/Assets/PSDUnity/Docs/NameRule.xlsx
+++ b/Assets/PSDUnity/Docs/NameRule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>NormalLayer</t>
   </si>
@@ -38,6 +38,13 @@
     <t>Example</t>
   </si>
   <si>
+    <t xml:space="preserve">备注： 
+1、分隔符'@'可以自定义
+2、参数符':'可以自定义
+3、类型区分大小写
+</t>
+  </si>
+  <si>
     <t>父级（可自定义）</t>
   </si>
   <si>
@@ -163,38 +170,22 @@
 ("Common/Sprite")</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">备注： 
+    <t xml:space="preserve">备注： 
+1、SoCo类型的层可以不生成图片。如需要导出图片需要转换为智能对象或在插件中选择强制导出图片。
+2.图片的后缀可以自行定义，不添加后缀也可以设置默认类型
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、solidfill（色块）类型的图片，将不会导出图，只记录信息，并生成色块。如需要导出图片需要转换为智能对象</t>
-    </r>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>img#N</t>
-  </si>
-  <si>
-    <t>img#G</t>
+    <t xml:space="preserve">img#S </t>
+  </si>
+  <si>
+    <t>img#S#N</t>
+  </si>
+  <si>
+    <t>img#S#G</t>
   </si>
   <si>
     <t>red</t>
@@ -203,13 +194,13 @@
     <t>atlasimage</t>
   </si>
   <si>
-    <t>img#S</t>
-  </si>
-  <si>
-    <t>img#S#N</t>
-  </si>
-  <si>
-    <t>img#S#G</t>
+    <t>img#A</t>
+  </si>
+  <si>
+    <t>img#A#N</t>
+  </si>
+  <si>
+    <t>img#A#G</t>
   </si>
   <si>
     <t>b_page#S#N</t>
@@ -238,12 +229,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +251,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -268,6 +266,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -277,6 +281,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -305,33 +340,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,6 +393,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -372,43 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -437,19 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +477,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,12 +543,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,86 +607,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -643,29 +641,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -689,6 +674,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,46 +751,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,135 +769,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,19 +905,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,22 +920,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,17 +955,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1299,7 +1301,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1322,397 +1324,409 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8"/>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="41.25" customHeight="1" spans="6:11">
-      <c r="F14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" ht="31.5" customHeight="1" spans="6:6">
-      <c r="F15" s="15"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" ht="46.5" customHeight="1" spans="6:6">
-      <c r="F16" s="15"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="F18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
+      <c r="F20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" ht="48" customHeight="1" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="22"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="22"/>
+      <c r="B30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="G17:I20"/>
-    <mergeCell ref="G1:I11"/>
+    <mergeCell ref="G1:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="按扭@Button"/>
